--- a/NformTester/NformTester/Keywordscripts/600.10.30.120_ImportDevicesFromAFile.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.120_ImportDevicesFromAFile.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7369" uniqueCount="831">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3698,18 +3698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3735,6 +3723,22 @@
   <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_1$</t>
+  </si>
+  <si>
+    <t>$SNMP_device_1$</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3893,7 +3897,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3904,8 +3908,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3950,10 +3957,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4683,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4913,7 +4925,7 @@
         <v>818</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>793</v>
@@ -4949,10 +4961,10 @@
         <v>792</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>793</v>
@@ -5083,10 +5095,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>578</v>
@@ -5095,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -5114,10 +5126,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>89</v>
@@ -5155,7 +5167,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5321,10 +5333,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>578</v>
@@ -5333,7 +5345,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -5373,6 +5385,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>830</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
@@ -5508,7 +5526,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5654,7 +5672,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>602</v>
@@ -5710,7 +5728,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>602</v>
@@ -5839,7 +5857,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="5"/>
@@ -5870,7 +5888,7 @@
         <v>59</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -5897,7 +5915,7 @@
         <v>59</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -6025,10 +6043,10 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>578</v>
@@ -6037,7 +6055,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
